--- a/xlsForms/Encuesta 9 Minería.xlsx
+++ b/xlsForms/Encuesta 9 Minería.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F341223-27FE-4A55-BED4-3FCB8E9AA017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB48B05-E286-4AC3-9FA7-AC1CDAE36EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="282">
   <si>
     <t>type</t>
   </si>
@@ -138,6 +138,741 @@
   </si>
   <si>
     <t>Cargo</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>info_actividad</t>
+  </si>
+  <si>
+    <t>Información de la actividad</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>minerales</t>
+  </si>
+  <si>
+    <t>Minerales extraídos o explotados y transformados</t>
+  </si>
+  <si>
+    <t>select_one mineral</t>
+  </si>
+  <si>
+    <t>tipo_mineral</t>
+  </si>
+  <si>
+    <t>Tipo de mineral</t>
+  </si>
+  <si>
+    <t>unidad_medida</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Especifique la unidad (Ej. Kg, m3, Tonelada)</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>produccion_cantidad</t>
+  </si>
+  <si>
+    <t>2. Cantidad (producción)</t>
+  </si>
+  <si>
+    <t>Cantidad producida (día, mes, año)</t>
+  </si>
+  <si>
+    <t>costo_produccion</t>
+  </si>
+  <si>
+    <t>3. Costo de producción / unidad de medida</t>
+  </si>
+  <si>
+    <t>Indique el costo asociado por unidad</t>
+  </si>
+  <si>
+    <t>total_ventas_cantidad</t>
+  </si>
+  <si>
+    <t>4. Cantidad total de ventas</t>
+  </si>
+  <si>
+    <t>Especifique la cantidad vendida por frecuencia (día, mes)</t>
+  </si>
+  <si>
+    <t>valor_total_ventas</t>
+  </si>
+  <si>
+    <t>5. Valor total de ventas</t>
+  </si>
+  <si>
+    <t>end_repeat</t>
+  </si>
+  <si>
+    <t>tiempo_explotacion</t>
+  </si>
+  <si>
+    <t>6. ¿Tiene un cálculo aproximado del tiempo que puede explotar el mineral?</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>tiempo_aproximado</t>
+  </si>
+  <si>
+    <t>¿Cuánto?</t>
+  </si>
+  <si>
+    <t>${tiempo_explotacion} = 'yes'</t>
+  </si>
+  <si>
+    <t>Solo si se selecciona "Sí" en la pregunta anterior</t>
+  </si>
+  <si>
+    <t>select_one objetivo</t>
+  </si>
+  <si>
+    <t>objetivo_explotacion</t>
+  </si>
+  <si>
+    <t>7. ¿Cuál es el objetivo de la explotación?</t>
+  </si>
+  <si>
+    <t>select_one fuente_hidrica</t>
+  </si>
+  <si>
+    <t>fuente_hidrica</t>
+  </si>
+  <si>
+    <t>8. ¿De dónde se abastece del recurso hídrico?</t>
+  </si>
+  <si>
+    <t>forma_extraccion</t>
+  </si>
+  <si>
+    <t>Forma de extracción</t>
+  </si>
+  <si>
+    <t>cantidad_estimada</t>
+  </si>
+  <si>
+    <t>Cantidad estimada de extracción</t>
+  </si>
+  <si>
+    <t>Indique la cantidad aproximada que puede extraerse.</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>metalicos</t>
+  </si>
+  <si>
+    <t>Metálicos (oro y otros)</t>
+  </si>
+  <si>
+    <t>caliza</t>
+  </si>
+  <si>
+    <t>Caliza para cal</t>
+  </si>
+  <si>
+    <t>arena</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>grava</t>
+  </si>
+  <si>
+    <t>Grava</t>
+  </si>
+  <si>
+    <t>arcilla</t>
+  </si>
+  <si>
+    <t>Arcilla</t>
+  </si>
+  <si>
+    <t>rocas</t>
+  </si>
+  <si>
+    <t>Rocas ornamentales</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>extraccion</t>
+  </si>
+  <si>
+    <t>Extracción de minerales</t>
+  </si>
+  <si>
+    <t>transformacion</t>
+  </si>
+  <si>
+    <t>Transformación de minerales</t>
+  </si>
+  <si>
+    <t>extraccion_transformacion</t>
+  </si>
+  <si>
+    <t>Extracción y transformación</t>
+  </si>
+  <si>
+    <t>aljibe</t>
+  </si>
+  <si>
+    <t>Aljibe</t>
+  </si>
+  <si>
+    <t>acueducto</t>
+  </si>
+  <si>
+    <t>Acueducto veredal</t>
+  </si>
+  <si>
+    <t>otro</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>select_multiple energia</t>
+  </si>
+  <si>
+    <t>tipo_energia</t>
+  </si>
+  <si>
+    <t>9. ¿Qué tipo de energía utiliza?</t>
+  </si>
+  <si>
+    <t>otro_energia</t>
+  </si>
+  <si>
+    <t>Otro, ¿Cuál?</t>
+  </si>
+  <si>
+    <t>${tipo_energia} = 'otro'</t>
+  </si>
+  <si>
+    <t>select_one fuente_energia</t>
+  </si>
+  <si>
+    <t>fuente_coccion</t>
+  </si>
+  <si>
+    <t>10. ¿De dónde proviene la energía que utiliza para la cocción de alimentos?</t>
+  </si>
+  <si>
+    <t>servicio_alcantarillado</t>
+  </si>
+  <si>
+    <t>11. ¿Cuenta con servicio de alcantarillado?</t>
+  </si>
+  <si>
+    <t>detalles_alcantarillado</t>
+  </si>
+  <si>
+    <t>¿Cuál?</t>
+  </si>
+  <si>
+    <t>${servicio_alcantarillado} = 'yes'</t>
+  </si>
+  <si>
+    <t>manejo_residuos</t>
+  </si>
+  <si>
+    <t>12. ¿Cuál es el manejo de aguas residuales y sólidos?</t>
+  </si>
+  <si>
+    <t>sitio_venta</t>
+  </si>
+  <si>
+    <t>13. Sitio de venta</t>
+  </si>
+  <si>
+    <t>select_multiple compradores</t>
+  </si>
+  <si>
+    <t>procedencia_compradores</t>
+  </si>
+  <si>
+    <t>14. Procedencia de los compradores</t>
+  </si>
+  <si>
+    <t>otros_compradores</t>
+  </si>
+  <si>
+    <t>Otros, ¿Cuál?</t>
+  </si>
+  <si>
+    <t>valor_maquinaria</t>
+  </si>
+  <si>
+    <t>15. Valor total de la maquinaria</t>
+  </si>
+  <si>
+    <t>permisos_ambientales</t>
+  </si>
+  <si>
+    <t>16. ¿Cuenta con permisos ambientales?</t>
+  </si>
+  <si>
+    <t>cual_hidrocarburos</t>
+  </si>
+  <si>
+    <t>Especifique empresa y proyecto para Hidrocarburos</t>
+  </si>
+  <si>
+    <t>lugar_maquinaria</t>
+  </si>
+  <si>
+    <t>15.1. Lugar de procedencia de la maquinaria</t>
+  </si>
+  <si>
+    <t>energia</t>
+  </si>
+  <si>
+    <t>electrica</t>
+  </si>
+  <si>
+    <t>Energía eléctrica</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>Energía solar</t>
+  </si>
+  <si>
+    <t>lena</t>
+  </si>
+  <si>
+    <t>Leña</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>fuente_energia</t>
+  </si>
+  <si>
+    <t>compradores</t>
+  </si>
+  <si>
+    <t>hidrocarburos</t>
+  </si>
+  <si>
+    <t>Hidrocarburos</t>
+  </si>
+  <si>
+    <t>otros</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>servicios</t>
+  </si>
+  <si>
+    <t>seguridad</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>mano_calificada</t>
+  </si>
+  <si>
+    <t>Mano de obra calificada</t>
+  </si>
+  <si>
+    <t>mano_no_calificada</t>
+  </si>
+  <si>
+    <t>Mano de obra no calificada</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>alojamiento</t>
+  </si>
+  <si>
+    <t>Alojamiento</t>
+  </si>
+  <si>
+    <t>alimentacion</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>select_multiple servicios</t>
+  </si>
+  <si>
+    <t>demanda_servicios</t>
+  </si>
+  <si>
+    <t>17. ¿Demanda algún tipo de servicio adicional del sector minero energético?</t>
+  </si>
+  <si>
+    <t>Seleccione los servicios que aplica.</t>
+  </si>
+  <si>
+    <t>servicios_seleccionados</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>tipo_servicio</t>
+  </si>
+  <si>
+    <t>select_one frecuencia</t>
+  </si>
+  <si>
+    <t>frecuencia_servicio</t>
+  </si>
+  <si>
+    <t>Frecuencia para el servicio seleccionado: ${tipo_servicio}</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>diaria</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>count-selected(${demanda_servicios})</t>
+  </si>
+  <si>
+    <t>selected-at(${demanda_servicios}, position(..) - 1)</t>
+  </si>
+  <si>
+    <t>Frecuencia con la que contrata los servicios</t>
+  </si>
+  <si>
+    <t>count-selected(${demanda_servicios}) &gt; 0</t>
+  </si>
+  <si>
+    <t>otro_servicio</t>
+  </si>
+  <si>
+    <t>¿Cuál otro servicio?</t>
+  </si>
+  <si>
+    <t>selected(${demanda_servicios}, 'otro')</t>
+  </si>
+  <si>
+    <t>begin_sobre_act</t>
+  </si>
+  <si>
+    <t>Sobre la actividad, piensa:</t>
+  </si>
+  <si>
+    <t>continuar_actividad</t>
+  </si>
+  <si>
+    <t>Continuar con la actividad.</t>
+  </si>
+  <si>
+    <t>porque_continuar</t>
+  </si>
+  <si>
+    <t>¿Por qué?</t>
+  </si>
+  <si>
+    <t>selected(${continuar_actividad}, 'no')</t>
+  </si>
+  <si>
+    <t>ampliar_produccion</t>
+  </si>
+  <si>
+    <t>Ampliar la producción.</t>
+  </si>
+  <si>
+    <t>porque_ampliar</t>
+  </si>
+  <si>
+    <t>selected(${ampliar_produccion}, 'no')</t>
+  </si>
+  <si>
+    <t>contrata_mano_obra</t>
+  </si>
+  <si>
+    <t>informacion_laboral</t>
+  </si>
+  <si>
+    <t>Información laboral</t>
+  </si>
+  <si>
+    <t>${contrata_mano_obra} = 'yes'</t>
+  </si>
+  <si>
+    <t>select_one tipo_mano_obra</t>
+  </si>
+  <si>
+    <t>tipo_mano_obra</t>
+  </si>
+  <si>
+    <t>Tipo de mano de obra</t>
+  </si>
+  <si>
+    <t>select_one genero</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>Edad (años)</t>
+  </si>
+  <si>
+    <t>duracion_jornada</t>
+  </si>
+  <si>
+    <t>Duración jornada (horas)</t>
+  </si>
+  <si>
+    <t>select_one escolaridad</t>
+  </si>
+  <si>
+    <t>escolaridad</t>
+  </si>
+  <si>
+    <t>Escolaridad</t>
+  </si>
+  <si>
+    <t>select_one contrato</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>pago_seguridad_social</t>
+  </si>
+  <si>
+    <t>¿Pago de seguridad social?</t>
+  </si>
+  <si>
+    <t>procedencia</t>
+  </si>
+  <si>
+    <t>Procedencia</t>
+  </si>
+  <si>
+    <t>residencia</t>
+  </si>
+  <si>
+    <t>Residencia</t>
+  </si>
+  <si>
+    <t>tiempo_trabajado</t>
+  </si>
+  <si>
+    <t>Tiempo trabajado (meses/año)</t>
+  </si>
+  <si>
+    <t>nucleo_familiar</t>
+  </si>
+  <si>
+    <t>Número de personas núcleo familiar</t>
+  </si>
+  <si>
+    <t>personas_a_cargo</t>
+  </si>
+  <si>
+    <t>Personas a cargo</t>
+  </si>
+  <si>
+    <t>lugar_residencia_familiar</t>
+  </si>
+  <si>
+    <t>Lugar de residencia familiar</t>
+  </si>
+  <si>
+    <t>select_one remuneracion</t>
+  </si>
+  <si>
+    <t>remuneracion</t>
+  </si>
+  <si>
+    <t>Remuneración</t>
+  </si>
+  <si>
+    <t>¿Contrata algún tipo de mano de obra?</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>contratado</t>
+  </si>
+  <si>
+    <t>Contratado</t>
+  </si>
+  <si>
+    <t>primaria</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>bachillerato</t>
+  </si>
+  <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>tecnico</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>pregrado</t>
+  </si>
+  <si>
+    <t>Pregrado</t>
+  </si>
+  <si>
+    <t>posgrado</t>
+  </si>
+  <si>
+    <t>Posgrado</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>Fijo</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>inferior_smlv</t>
+  </si>
+  <si>
+    <t>Inferiores al SMLV</t>
+  </si>
+  <si>
+    <t>igual_smlv</t>
+  </si>
+  <si>
+    <t>Igual al SMLV</t>
+  </si>
+  <si>
+    <t>entre_1y2_smlv</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 SMLV</t>
+  </si>
+  <si>
+    <t>superior_2</t>
+  </si>
+  <si>
+    <t>Superior a 2 SMLV</t>
+  </si>
+  <si>
+    <t>femenino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>selected(${procedencia_compradores}, 'hidrocarburos')</t>
+  </si>
+  <si>
+    <t>selected(${procedencia_compradores}, 'otros')</t>
+  </si>
+  <si>
+    <t>Encuesta Minería</t>
+  </si>
+  <si>
+    <t>mineria</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Kq7fMkoPShjSnQKk8_UrBhx2vA3quWl9PS_udQ7TQLI/edit?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -159,7 +894,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +904,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,12 +941,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,23 +1235,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -682,6 +1431,912 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="I45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -691,24 +2346,633 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F9B71-586B-442A-A62C-F9471D0BA437}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A3FCDA-3EAA-4DF1-9974-6EC0729C60A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A10:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsForms/Encuesta 9 Minería.xlsx
+++ b/xlsForms/Encuesta 9 Minería.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB48B05-E286-4AC3-9FA7-AC1CDAE36EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C406C88B-FCB8-4BE4-876F-DEB5B8ED6E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="289">
   <si>
     <t>type</t>
   </si>
@@ -873,13 +873,34 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1Kq7fMkoPShjSnQKk8_UrBhx2vA3quWl9PS_udQ7TQLI/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +913,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -914,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -937,11 +965,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -955,6 +994,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,13 +1281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
@@ -1252,9 +1298,10 @@
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1329,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1336,12 +1386,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1428,12 +1478,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -1461,7 +1511,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2239,7 +2289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2253,7 +2303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2267,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2281,7 +2331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2295,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2309,7 +2359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>243</v>
       </c>
@@ -2334,10 +2384,61 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="J74" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2352,7 +2453,7 @@
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
@@ -2944,7 +3045,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="107.42578125" bestFit="1" customWidth="1"/>
